--- a/inst/shiny-examples/ContDataQC/www/ThresholdsCheckWorksheet_20220826.xlsx
+++ b/inst/shiny-examples/ContDataQC/www/ThresholdsCheckWorksheet_20220826.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jen.Stamp\Documents\Article_ContDataQC\Tt_ShinyApp\FileLinks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jen.Stamp\Documents\Article_ContDataQC\ShinyApp_testing\reviewer_comments\Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8D394D-7D3B-4D82-988D-2C3A997F8EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C837CD49-7DCA-43EA-80F8-ECCB8F83CF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99FBABEA-192B-4A5C-8579-D88ADD3D8FEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99FBABEA-192B-4A5C-8579-D88ADD3D8FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="GrossLimit" sheetId="1" r:id="rId1"/>
@@ -71,18 +71,12 @@
     <t>Lo</t>
   </si>
   <si>
-    <t>&lt; -2 deg C</t>
-  </si>
-  <si>
     <t>Suspect</t>
   </si>
   <si>
     <t>&gt; 25 deg C</t>
   </si>
   <si>
-    <t>&lt; -0.1 deg C</t>
-  </si>
-  <si>
     <t>Temperature, Air (deg C)</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>&gt;= 1.5 deg C (+/-)</t>
   </si>
   <si>
-    <t>&gt;= 1 deg C (+/-)</t>
-  </si>
-  <si>
     <t>&gt;= 10 deg C (+/-)</t>
   </si>
   <si>
@@ -164,21 +155,12 @@
     <t>Rate of change</t>
   </si>
   <si>
-    <t>&gt;= 3 standard deviations within 25 hours</t>
-  </si>
-  <si>
     <t>Flat line</t>
   </si>
   <si>
     <t>&gt; 30 consecutive measurements within 0.01 units of one another</t>
   </si>
   <si>
-    <t>&gt; 20 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
-    <t>&gt; 15 consecutive measurements within 0.01 units of one another</t>
-  </si>
-  <si>
     <t>&gt; 15 consecutive measurements within 0.001 units of one another</t>
   </si>
   <si>
@@ -194,9 +176,6 @@
     <t>Sensor Depth or Water Level (ft)</t>
   </si>
   <si>
-    <t>&gt; 20 mg/L</t>
-  </si>
-  <si>
     <t>&lt; 1 mg/L</t>
   </si>
   <si>
@@ -206,12 +185,6 @@
     <t>&lt; 2 mg/L</t>
   </si>
   <si>
-    <t>&gt;= 10 mg/L (+/-)</t>
-  </si>
-  <si>
-    <t>&gt;= 5 mg/L (+/-)</t>
-  </si>
-  <si>
     <t>Discharge (ft3/s)</t>
   </si>
   <si>
@@ -320,9 +293,6 @@
     <t>&gt; 10^3 g/cm3</t>
   </si>
   <si>
-    <t>&gt; 20 consecutive measurements within 0 units of one another</t>
-  </si>
-  <si>
     <t>Site1</t>
   </si>
   <si>
@@ -348,6 +318,36 @@
   </si>
   <si>
     <t>&gt;= 3</t>
+  </si>
+  <si>
+    <t>&lt; -1 deg C</t>
+  </si>
+  <si>
+    <t>&lt; -0.5 deg C</t>
+  </si>
+  <si>
+    <t>&gt; 16 mg/L</t>
+  </si>
+  <si>
+    <t>&gt;= 2 deg C (+/-)</t>
+  </si>
+  <si>
+    <t>&gt;= 4 mg/L (+/-)</t>
+  </si>
+  <si>
+    <t>&gt;= 2 mg/L (+/-)</t>
+  </si>
+  <si>
+    <t>&gt;= 6 standard deviations within 25 hours</t>
+  </si>
+  <si>
+    <t>&gt; 100 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>&gt; 50 consecutive measurements within 0.01 units of one another</t>
+  </si>
+  <si>
+    <t>&gt; 30 consecutive measurements within 0 units of one another</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -462,53 +462,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -516,35 +495,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,11 +814,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2C352A-CD4D-4844-B2AF-0F5D886F267A}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,88 +853,84 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>97</v>
+      <c r="E2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="13"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
@@ -990,61 +938,61 @@
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>20</v>
+      <c r="A11" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>7</v>
@@ -1053,14 +1001,14 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -1068,45 +1016,45 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>25</v>
+      <c r="A15" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>7</v>
@@ -1115,14 +1063,14 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
@@ -1130,45 +1078,45 @@
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>51</v>
+      <c r="A19" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>7</v>
@@ -1177,14 +1125,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1192,45 +1140,45 @@
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+        <v>62</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>58</v>
+      <c r="A23" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
@@ -1239,11 +1187,11 @@
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1251,36 +1199,36 @@
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>50</v>
+      <c r="A27" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>7</v>
@@ -1288,61 +1236,61 @@
       <c r="C27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="D27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="D28" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="D30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>60</v>
+      <c r="A31" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>7</v>
@@ -1350,61 +1298,61 @@
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
+      <c r="D31" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="D32" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="D33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="D34" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>62</v>
+      <c r="A35" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>7</v>
@@ -1412,61 +1360,61 @@
       <c r="C35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="D35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="D36" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
+      <c r="D37" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="D38" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>59</v>
+      <c r="A39" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>7</v>
@@ -1475,11 +1423,11 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="6" t="s">
         <v>7</v>
       </c>
@@ -1487,36 +1435,36 @@
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>61</v>
+      <c r="A43" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>7</v>
@@ -1525,11 +1473,11 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="6" t="s">
         <v>7</v>
       </c>
@@ -1537,36 +1485,36 @@
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
-        <v>98</v>
+      <c r="A47" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>7</v>
@@ -1575,11 +1523,11 @@
         <v>8</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="6" t="s">
         <v>7</v>
       </c>
@@ -1587,47 +1535,47 @@
         <v>10</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="A39:A42"/>
     <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -1638,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87041D4-C719-4D89-A794-F39C66C258DE}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1609,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="8"/>
@@ -1676,390 +1624,381 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>97</v>
+      <c r="D2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="19" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A5:A6"/>
@@ -2067,6 +2006,11 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2077,7 +2021,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,7 +2043,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H1" s="11"/>
     </row>
@@ -2113,14 +2057,14 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>97</v>
+      <c r="D2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>5</v>
@@ -2128,377 +2072,373 @@
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>15</v>
+      <c r="A5" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>20</v>
+      <c r="A7" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>25</v>
+      <c r="A9" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>59</v>
-      </c>
       <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>61</v>
+      <c r="A23" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>98</v>
+      <c r="A25" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2524,7 +2464,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2486,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2559,382 +2499,378 @@
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>97</v>
+      <c r="D2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>59</v>
-      </c>
       <c r="B21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+        <v>40</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>61</v>
+      <c r="A23" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>98</v>
+      <c r="A25" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
